--- a/pred_ohlcv/54_21/2020-01-14 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6371368.851711193</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6340720.933311193</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8594422.26686665</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8720308.34836665</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8451682.842025194</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8484928.297925195</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8484875.297925195</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8486653.765625196</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8369129.248625196</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8579146.152525196</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8524299.352825196</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-8522464.968125196</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8605996.937325196</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8525553.480325196</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8561582.380225196</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9035547.376225196</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9062886.732125197</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9223875.588225197</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9223822.588225197</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9240736.299725197</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9356158.350525199</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9356105.350525199</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9356052.350525199</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9106654.065425199</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9096602.065425199</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9096701.392025199</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9096649.392025199</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-9099269.494025199</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6371368.851711193</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6340720.933311193</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8594422.26686665</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8720308.34836665</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8451682.842025194</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8484928.297925195</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8484875.297925195</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8486653.765625196</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8369129.248625196</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8579146.152525196</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8524299.352825196</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-8522464.968125196</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8605996.937325196</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8525553.480325196</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8561582.380225196</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9035547.376225196</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9062886.732125197</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9223875.588225197</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9223822.588225197</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9240736.299725197</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9356158.350525199</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9356105.350525199</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9356052.350525199</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9106654.065425199</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9096602.065425199</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9096701.392025199</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9096649.392025199</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-9099269.494025199</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
